--- a/data/pca/factorExposure/factorExposure_2016-04-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-04-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01185589924469194</v>
+        <v>-0.01557995051910303</v>
       </c>
       <c r="C2">
-        <v>-0.0513086387387172</v>
+        <v>0.03816807698157199</v>
       </c>
       <c r="D2">
-        <v>0.04539616108311388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06723339580224678</v>
+      </c>
+      <c r="E2">
+        <v>-0.09216284569166575</v>
+      </c>
+      <c r="F2">
+        <v>-0.08936433515037853</v>
+      </c>
+      <c r="G2">
+        <v>-0.01986150998401015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04258261164464745</v>
+        <v>-0.02627558245795213</v>
       </c>
       <c r="C3">
-        <v>-0.1213282339347589</v>
+        <v>0.06626608482311598</v>
       </c>
       <c r="D3">
-        <v>0.09452419317738424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07631340212171932</v>
+      </c>
+      <c r="E3">
+        <v>-0.0667126933434241</v>
+      </c>
+      <c r="F3">
+        <v>0.01919164873158647</v>
+      </c>
+      <c r="G3">
+        <v>-0.0499757468636127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06223069478025712</v>
+        <v>-0.06020032901709196</v>
       </c>
       <c r="C4">
-        <v>-0.06518433626068754</v>
+        <v>0.06412765290333586</v>
       </c>
       <c r="D4">
-        <v>0.0359966961750831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06213228480490206</v>
+      </c>
+      <c r="E4">
+        <v>-0.09056478092527387</v>
+      </c>
+      <c r="F4">
+        <v>-0.05201425777101271</v>
+      </c>
+      <c r="G4">
+        <v>-0.07909296930925594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03967481806682279</v>
+        <v>-0.03709491089715973</v>
       </c>
       <c r="C6">
-        <v>-0.03738856020529362</v>
+        <v>0.02753078131135766</v>
       </c>
       <c r="D6">
-        <v>0.040044315731784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06779775108380293</v>
+      </c>
+      <c r="E6">
+        <v>-0.08626669727562888</v>
+      </c>
+      <c r="F6">
+        <v>-0.03882433507240461</v>
+      </c>
+      <c r="G6">
+        <v>-0.05840923063674049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02655840280678525</v>
+        <v>-0.0211355538195859</v>
       </c>
       <c r="C7">
-        <v>-0.04088443976809957</v>
+        <v>0.03644983615363857</v>
       </c>
       <c r="D7">
-        <v>0.0006042682644110447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04274509768157807</v>
+      </c>
+      <c r="E7">
+        <v>-0.06823918672203656</v>
+      </c>
+      <c r="F7">
+        <v>-0.07891640848208532</v>
+      </c>
+      <c r="G7">
+        <v>-0.09148530419837148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007845551044151775</v>
+        <v>-0.007060895114837842</v>
       </c>
       <c r="C8">
-        <v>-0.04082658288299852</v>
+        <v>0.0346716462655277</v>
       </c>
       <c r="D8">
-        <v>0.03094519488720017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03960965163803282</v>
+      </c>
+      <c r="E8">
+        <v>-0.05666857633669495</v>
+      </c>
+      <c r="F8">
+        <v>-0.02319894259186985</v>
+      </c>
+      <c r="G8">
+        <v>-0.03664173011380383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0392861738545599</v>
+        <v>-0.04111639659436754</v>
       </c>
       <c r="C9">
-        <v>-0.04707798725056652</v>
+        <v>0.05027868149468267</v>
       </c>
       <c r="D9">
-        <v>0.01766236634750225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04427694180403259</v>
+      </c>
+      <c r="E9">
+        <v>-0.06913409398079513</v>
+      </c>
+      <c r="F9">
+        <v>-0.06570679527348217</v>
+      </c>
+      <c r="G9">
+        <v>-0.07316687463239616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07222104219831424</v>
+        <v>-0.09976769773832998</v>
       </c>
       <c r="C10">
-        <v>0.1939632941771983</v>
+        <v>-0.2026696390343822</v>
       </c>
       <c r="D10">
-        <v>-0.002274992923633639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01206734362528236</v>
+      </c>
+      <c r="E10">
+        <v>-0.03223874314979388</v>
+      </c>
+      <c r="F10">
+        <v>-0.02187630822474973</v>
+      </c>
+      <c r="G10">
+        <v>-0.0354884103729773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04312349772898338</v>
+        <v>-0.03756176282191395</v>
       </c>
       <c r="C11">
-        <v>-0.05102835621930187</v>
+        <v>0.04757907796675465</v>
       </c>
       <c r="D11">
-        <v>0.01592596726727004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03254497432201037</v>
+      </c>
+      <c r="E11">
+        <v>-0.02752880257458916</v>
+      </c>
+      <c r="F11">
+        <v>-0.04646358593490589</v>
+      </c>
+      <c r="G11">
+        <v>-0.06461387629031384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04606487910009303</v>
+        <v>-0.03990417655914714</v>
       </c>
       <c r="C12">
-        <v>-0.0455253852934835</v>
+        <v>0.0455075378591276</v>
       </c>
       <c r="D12">
-        <v>0.005380918915468581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02817751050196053</v>
+      </c>
+      <c r="E12">
+        <v>-0.03559188805742279</v>
+      </c>
+      <c r="F12">
+        <v>-0.04778493598414522</v>
+      </c>
+      <c r="G12">
+        <v>-0.06061095099260096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01623712758378591</v>
+        <v>-0.01433585915263212</v>
       </c>
       <c r="C13">
-        <v>-0.05285800679102228</v>
+        <v>0.04156798986421253</v>
       </c>
       <c r="D13">
-        <v>0.01731442714767836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05230165563544606</v>
+      </c>
+      <c r="E13">
+        <v>-0.1022722899258087</v>
+      </c>
+      <c r="F13">
+        <v>-0.07135702855658575</v>
+      </c>
+      <c r="G13">
+        <v>-0.08686885813520544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009765587576835278</v>
+        <v>-0.006843485642165219</v>
       </c>
       <c r="C14">
-        <v>-0.03592625498888664</v>
+        <v>0.03051193752124362</v>
       </c>
       <c r="D14">
-        <v>-0.002418489585000662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02774852860558042</v>
+      </c>
+      <c r="E14">
+        <v>-0.05322237543549216</v>
+      </c>
+      <c r="F14">
+        <v>-0.08749143503990464</v>
+      </c>
+      <c r="G14">
+        <v>-0.07379580191365481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-9.18122820407776e-05</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005458344433109481</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008667803912526301</v>
+      </c>
+      <c r="E15">
+        <v>-0.004049704884372055</v>
+      </c>
+      <c r="F15">
+        <v>-0.007469700183968905</v>
+      </c>
+      <c r="G15">
+        <v>-0.006933622265608879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04087710067940988</v>
+        <v>-0.03578110829655386</v>
       </c>
       <c r="C16">
-        <v>-0.04778894630639904</v>
+        <v>0.04435839350971413</v>
       </c>
       <c r="D16">
-        <v>0.008060891095045262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02740385810332924</v>
+      </c>
+      <c r="E16">
+        <v>-0.04240539743836515</v>
+      </c>
+      <c r="F16">
+        <v>-0.05714297421819143</v>
+      </c>
+      <c r="G16">
+        <v>-0.05018884558418976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02710425175621574</v>
+        <v>-0.01902693241734518</v>
       </c>
       <c r="C19">
-        <v>-0.06085421909067907</v>
+        <v>0.04499670005582326</v>
       </c>
       <c r="D19">
-        <v>0.100753580231459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09728443074062848</v>
+      </c>
+      <c r="E19">
+        <v>-0.1098325378489422</v>
+      </c>
+      <c r="F19">
+        <v>-0.06726603017108025</v>
+      </c>
+      <c r="G19">
+        <v>-0.03222161329589662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01984008970606321</v>
+        <v>-0.01582472073202651</v>
       </c>
       <c r="C20">
-        <v>-0.04927744332375344</v>
+        <v>0.03979003819841351</v>
       </c>
       <c r="D20">
-        <v>0.01614941390001012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03884187179192266</v>
+      </c>
+      <c r="E20">
+        <v>-0.07940620258103562</v>
+      </c>
+      <c r="F20">
+        <v>-0.06310847812183511</v>
+      </c>
+      <c r="G20">
+        <v>-0.05849040195441139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01380382762891462</v>
+        <v>-0.01247059374031457</v>
       </c>
       <c r="C21">
-        <v>-0.05610747486529272</v>
+        <v>0.04453199021119108</v>
       </c>
       <c r="D21">
-        <v>0.03990856212509184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06393122848027627</v>
+      </c>
+      <c r="E21">
+        <v>-0.1255328253530014</v>
+      </c>
+      <c r="F21">
+        <v>-0.1017368524385795</v>
+      </c>
+      <c r="G21">
+        <v>-0.08525509839989674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.002473365486152052</v>
+        <v>-0.004184577658546208</v>
       </c>
       <c r="C22">
-        <v>-0.001036909571455569</v>
+        <v>0.02874650032778242</v>
       </c>
       <c r="D22">
-        <v>0.009083006635091378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.05414032998390817</v>
+      </c>
+      <c r="E22">
+        <v>-0.05531845787238972</v>
+      </c>
+      <c r="F22">
+        <v>0.01349778110320986</v>
+      </c>
+      <c r="G22">
+        <v>-0.06305911372070695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.002479356039112206</v>
+        <v>-0.004289963723556015</v>
       </c>
       <c r="C23">
-        <v>-0.001056948284895504</v>
+        <v>0.02878105802710472</v>
       </c>
       <c r="D23">
-        <v>0.009069532909131612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.05347766056553258</v>
+      </c>
+      <c r="E23">
+        <v>-0.05565895966043154</v>
+      </c>
+      <c r="F23">
+        <v>0.01362120926738206</v>
+      </c>
+      <c r="G23">
+        <v>-0.06316196629586648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03771248695402164</v>
+        <v>-0.03647763979167509</v>
       </c>
       <c r="C24">
-        <v>-0.04942439266375539</v>
+        <v>0.05204051264032469</v>
       </c>
       <c r="D24">
-        <v>0.01033606620535172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02712512607444127</v>
+      </c>
+      <c r="E24">
+        <v>-0.04303775081666573</v>
+      </c>
+      <c r="F24">
+        <v>-0.06114225819689623</v>
+      </c>
+      <c r="G24">
+        <v>-0.06210618290501234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04938027843192458</v>
+        <v>-0.04425391033124896</v>
       </c>
       <c r="C25">
-        <v>-0.059548356138335</v>
+        <v>0.05547570291228521</v>
       </c>
       <c r="D25">
-        <v>-0.001209278754187565</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02437505723192198</v>
+      </c>
+      <c r="E25">
+        <v>-0.03572517786819866</v>
+      </c>
+      <c r="F25">
+        <v>-0.051418884283174</v>
+      </c>
+      <c r="G25">
+        <v>-0.07488328613855182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01809639615200182</v>
+        <v>-0.01702619825082585</v>
       </c>
       <c r="C26">
-        <v>-0.0180625665486448</v>
+        <v>0.01687871337823947</v>
       </c>
       <c r="D26">
-        <v>0.007176941286782427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02707406335550836</v>
+      </c>
+      <c r="E26">
+        <v>-0.0488761335577995</v>
+      </c>
+      <c r="F26">
+        <v>-0.06642610563629167</v>
+      </c>
+      <c r="G26">
+        <v>-0.04523783116786704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08835989003499253</v>
+        <v>-0.1366854745099551</v>
       </c>
       <c r="C28">
-        <v>0.2527643984885687</v>
+        <v>-0.256745631450946</v>
       </c>
       <c r="D28">
-        <v>-0.006654312462244968</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02783023223465688</v>
+      </c>
+      <c r="E28">
+        <v>-0.05549478990853745</v>
+      </c>
+      <c r="F28">
+        <v>-0.03987203392708683</v>
+      </c>
+      <c r="G28">
+        <v>-0.0523512682857611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007817205613180224</v>
+        <v>-0.007251328282303993</v>
       </c>
       <c r="C29">
-        <v>-0.03178752986503489</v>
+        <v>0.0285126159721884</v>
       </c>
       <c r="D29">
-        <v>-0.007876592462776914</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01998064362133847</v>
+      </c>
+      <c r="E29">
+        <v>-0.05269739012787536</v>
+      </c>
+      <c r="F29">
+        <v>-0.07843002025364236</v>
+      </c>
+      <c r="G29">
+        <v>-0.07954516392341411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04745127773345276</v>
+        <v>-0.04483857137303515</v>
       </c>
       <c r="C30">
-        <v>-0.04751739268219227</v>
+        <v>0.05567711177984824</v>
       </c>
       <c r="D30">
-        <v>0.0818961699618196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1060867212923155</v>
+      </c>
+      <c r="E30">
+        <v>-0.07641203415116994</v>
+      </c>
+      <c r="F30">
+        <v>-0.07144143770371485</v>
+      </c>
+      <c r="G30">
+        <v>-0.05666127224437503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06205190137425567</v>
+        <v>-0.05988412861415916</v>
       </c>
       <c r="C31">
-        <v>-0.04767182865448576</v>
+        <v>0.06233768884557617</v>
       </c>
       <c r="D31">
-        <v>-0.03866636836766926</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01361175654213038</v>
+      </c>
+      <c r="E31">
+        <v>-0.07304353454493809</v>
+      </c>
+      <c r="F31">
+        <v>-0.03276631173681111</v>
+      </c>
+      <c r="G31">
+        <v>-0.0763577579083151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.003512522475099316</v>
+        <v>-0.008627340066343464</v>
       </c>
       <c r="C32">
-        <v>-0.04104608655720569</v>
+        <v>0.03465380396562355</v>
       </c>
       <c r="D32">
-        <v>0.05929947969481277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05665452838692307</v>
+      </c>
+      <c r="E32">
+        <v>-0.05639854367377262</v>
+      </c>
+      <c r="F32">
+        <v>-0.07144099377764287</v>
+      </c>
+      <c r="G32">
+        <v>-0.05770610989276603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03642561443978103</v>
+        <v>-0.02949778659970624</v>
       </c>
       <c r="C33">
-        <v>-0.05634519222539976</v>
+        <v>0.05174231126430757</v>
       </c>
       <c r="D33">
-        <v>0.04512806301270814</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07673621109159848</v>
+      </c>
+      <c r="E33">
+        <v>-0.08635777396888761</v>
+      </c>
+      <c r="F33">
+        <v>-0.07892503239654998</v>
+      </c>
+      <c r="G33">
+        <v>-0.09122281755963144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04581225931713557</v>
+        <v>-0.04129076027063956</v>
       </c>
       <c r="C34">
-        <v>-0.06489795546078671</v>
+        <v>0.06284043046110034</v>
       </c>
       <c r="D34">
-        <v>0.02112906954425157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03800325637013201</v>
+      </c>
+      <c r="E34">
+        <v>-0.0174508095469532</v>
+      </c>
+      <c r="F34">
+        <v>-0.05952470073895166</v>
+      </c>
+      <c r="G34">
+        <v>-0.06497299110768257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01800104081803648</v>
+        <v>-0.01545259382287133</v>
       </c>
       <c r="C36">
-        <v>-0.01602633241750995</v>
+        <v>0.01341552687758461</v>
       </c>
       <c r="D36">
-        <v>0.001237067566207684</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02718737621845263</v>
+      </c>
+      <c r="E36">
+        <v>-0.06088501850994042</v>
+      </c>
+      <c r="F36">
+        <v>-0.05782383444706457</v>
+      </c>
+      <c r="G36">
+        <v>-0.0604345390152819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03042857316659331</v>
+        <v>-0.02420428423351876</v>
       </c>
       <c r="C38">
-        <v>-0.0323940741041846</v>
+        <v>0.02424788800333274</v>
       </c>
       <c r="D38">
-        <v>-0.007990966379581826</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02266711772553576</v>
+      </c>
+      <c r="E38">
+        <v>-0.05150264359882648</v>
+      </c>
+      <c r="F38">
+        <v>-0.04687569004999936</v>
+      </c>
+      <c r="G38">
+        <v>-0.0401805227664455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04877032206420191</v>
+        <v>-0.04229030212731512</v>
       </c>
       <c r="C39">
-        <v>-0.06079898057780619</v>
+        <v>0.0621406310734751</v>
       </c>
       <c r="D39">
-        <v>0.0229183764801447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05252032394116875</v>
+      </c>
+      <c r="E39">
+        <v>-0.04874101579604864</v>
+      </c>
+      <c r="F39">
+        <v>-0.07967680159176221</v>
+      </c>
+      <c r="G39">
+        <v>-0.05388362753395595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01215799134148861</v>
+        <v>-0.01488478214250231</v>
       </c>
       <c r="C40">
-        <v>-0.05289262380489015</v>
+        <v>0.03718652598129507</v>
       </c>
       <c r="D40">
-        <v>0.021406560565007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03314634220468297</v>
+      </c>
+      <c r="E40">
+        <v>-0.09176033168788461</v>
+      </c>
+      <c r="F40">
+        <v>-0.04697626490607183</v>
+      </c>
+      <c r="G40">
+        <v>-0.09246597332786119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02399428813939924</v>
+        <v>-0.02015570998532557</v>
       </c>
       <c r="C41">
-        <v>-0.01262135945593183</v>
+        <v>0.009363672133136554</v>
       </c>
       <c r="D41">
-        <v>0.004764355565578772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01927109410803473</v>
+      </c>
+      <c r="E41">
+        <v>-0.06250406265753151</v>
+      </c>
+      <c r="F41">
+        <v>-0.05120663577895945</v>
+      </c>
+      <c r="G41">
+        <v>-0.04818498983787469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04522848896162331</v>
+        <v>-0.03208975096269937</v>
       </c>
       <c r="C43">
-        <v>-0.03381091333494917</v>
+        <v>0.02490419657619343</v>
       </c>
       <c r="D43">
-        <v>0.02659266900041318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04753807302344011</v>
+      </c>
+      <c r="E43">
+        <v>-0.07747371467463954</v>
+      </c>
+      <c r="F43">
+        <v>-0.04810397321479627</v>
+      </c>
+      <c r="G43">
+        <v>-0.07389759009203566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01778381038359759</v>
+        <v>-0.01899139543700768</v>
       </c>
       <c r="C44">
-        <v>-0.07093602766731884</v>
+        <v>0.04781227036461171</v>
       </c>
       <c r="D44">
-        <v>0.01330404425949092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03724539925676044</v>
+      </c>
+      <c r="E44">
+        <v>-0.08702780795546723</v>
+      </c>
+      <c r="F44">
+        <v>-0.06930188010951734</v>
+      </c>
+      <c r="G44">
+        <v>-0.04363966433914527</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01164281716523679</v>
+        <v>-0.0121067967199651</v>
       </c>
       <c r="C46">
-        <v>-0.02730902391439962</v>
+        <v>0.0289857295112723</v>
       </c>
       <c r="D46">
-        <v>-0.01008947047259476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01661945521984151</v>
+      </c>
+      <c r="E46">
+        <v>-0.06291295332822711</v>
+      </c>
+      <c r="F46">
+        <v>-0.08985881165937697</v>
+      </c>
+      <c r="G46">
+        <v>-0.07701281688884135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0918491084973506</v>
+        <v>-0.09372852119298467</v>
       </c>
       <c r="C47">
-        <v>-0.06793366676173784</v>
+        <v>0.07918155251202365</v>
       </c>
       <c r="D47">
-        <v>-0.03956379095835209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02171379232588997</v>
+      </c>
+      <c r="E47">
+        <v>-0.06562181854701127</v>
+      </c>
+      <c r="F47">
+        <v>-0.03257773668725981</v>
+      </c>
+      <c r="G47">
+        <v>-0.07421737029148429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02045082457490397</v>
+        <v>-0.01884473196145567</v>
       </c>
       <c r="C48">
-        <v>-0.01316757929914214</v>
+        <v>0.01582758808661464</v>
       </c>
       <c r="D48">
-        <v>-0.01167688624530114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01445889904244893</v>
+      </c>
+      <c r="E48">
+        <v>-0.0735887950956637</v>
+      </c>
+      <c r="F48">
+        <v>-0.07305654913983294</v>
+      </c>
+      <c r="G48">
+        <v>-0.06317400416630763</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08515614442778842</v>
+        <v>-0.07266754129371322</v>
       </c>
       <c r="C50">
-        <v>-0.08301069297020665</v>
+        <v>0.07504874964418902</v>
       </c>
       <c r="D50">
-        <v>-0.03647479402903376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.004784275457984031</v>
+      </c>
+      <c r="E50">
+        <v>-0.07964110670923234</v>
+      </c>
+      <c r="F50">
+        <v>-0.007075216301048807</v>
+      </c>
+      <c r="G50">
+        <v>-0.09031615557769246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01790495738910567</v>
+        <v>-0.01229811760044466</v>
       </c>
       <c r="C51">
-        <v>-0.04855532851178935</v>
+        <v>0.03086837864000921</v>
       </c>
       <c r="D51">
-        <v>0.04491707339390819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05810637123768852</v>
+      </c>
+      <c r="E51">
+        <v>-0.04956616999035723</v>
+      </c>
+      <c r="F51">
+        <v>-0.07545999505957063</v>
+      </c>
+      <c r="G51">
+        <v>-0.05250349625795905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08492922392984052</v>
+        <v>-0.09816197735347221</v>
       </c>
       <c r="C53">
-        <v>-0.07721424152276338</v>
+        <v>0.08472791456069194</v>
       </c>
       <c r="D53">
-        <v>-0.06065940291216951</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05950543100496083</v>
+      </c>
+      <c r="E53">
+        <v>-0.06981931874229785</v>
+      </c>
+      <c r="F53">
+        <v>-0.0345595675195785</v>
+      </c>
+      <c r="G53">
+        <v>-0.064939890857468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03744505112242731</v>
+        <v>-0.03086605990352816</v>
       </c>
       <c r="C54">
-        <v>-0.03423952506126583</v>
+        <v>0.031322107733716</v>
       </c>
       <c r="D54">
-        <v>0.0008815294337693017</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02805752215467031</v>
+      </c>
+      <c r="E54">
+        <v>-0.058696685985679</v>
+      </c>
+      <c r="F54">
+        <v>-0.08054551688222589</v>
+      </c>
+      <c r="G54">
+        <v>-0.07830131766474017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08127429062257623</v>
+        <v>-0.09123667499990697</v>
       </c>
       <c r="C55">
-        <v>-0.05203680354615427</v>
+        <v>0.06659087730984595</v>
       </c>
       <c r="D55">
-        <v>-0.0673724873492024</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05975293248880387</v>
+      </c>
+      <c r="E55">
+        <v>-0.04635123990074158</v>
+      </c>
+      <c r="F55">
+        <v>-0.01080065680854378</v>
+      </c>
+      <c r="G55">
+        <v>-0.05188971814519257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1538174268523517</v>
+        <v>-0.1559300483686705</v>
       </c>
       <c r="C56">
-        <v>-0.08134717146243836</v>
+        <v>0.09996765424374779</v>
       </c>
       <c r="D56">
-        <v>-0.05739032023501453</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05365566568656972</v>
+      </c>
+      <c r="E56">
+        <v>-0.04179744487797538</v>
+      </c>
+      <c r="F56">
+        <v>0.01179169545716452</v>
+      </c>
+      <c r="G56">
+        <v>-0.02183719929071837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05533798252262567</v>
+        <v>-0.03590058505482915</v>
       </c>
       <c r="C58">
-        <v>-0.007165725702725993</v>
+        <v>0.01797485686048757</v>
       </c>
       <c r="D58">
-        <v>0.6147287459370321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4160786452099283</v>
+      </c>
+      <c r="E58">
+        <v>-0.5934379201946708</v>
+      </c>
+      <c r="F58">
+        <v>0.4497509940530173</v>
+      </c>
+      <c r="G58">
+        <v>0.4319732933475717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1233650611975649</v>
+        <v>-0.1398445852454843</v>
       </c>
       <c r="C59">
-        <v>0.2065914889258204</v>
+        <v>-0.1931893886681033</v>
       </c>
       <c r="D59">
-        <v>0.0261577255209423</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03011182108926143</v>
+      </c>
+      <c r="E59">
+        <v>-0.027466767120597</v>
+      </c>
+      <c r="F59">
+        <v>-0.03215839511327001</v>
+      </c>
+      <c r="G59">
+        <v>0.009730152145699531</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3012130777609063</v>
+        <v>-0.2717441055437853</v>
       </c>
       <c r="C60">
-        <v>-0.1078173484688417</v>
+        <v>0.1032218492989115</v>
       </c>
       <c r="D60">
-        <v>0.1713982901807934</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2410646255588779</v>
+      </c>
+      <c r="E60">
+        <v>0.2494026466716651</v>
+      </c>
+      <c r="F60">
+        <v>0.08877989086027933</v>
+      </c>
+      <c r="G60">
+        <v>-0.05291893143599809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04729399683611987</v>
+        <v>-0.04378088225820792</v>
       </c>
       <c r="C61">
-        <v>-0.05966982942768197</v>
+        <v>0.05783345120044201</v>
       </c>
       <c r="D61">
-        <v>0.01873435925470816</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04406513313879231</v>
+      </c>
+      <c r="E61">
+        <v>-0.05067758492123723</v>
+      </c>
+      <c r="F61">
+        <v>-0.06419010804432097</v>
+      </c>
+      <c r="G61">
+        <v>-0.06912974844776194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01780184272269319</v>
+        <v>-0.01752525307842577</v>
       </c>
       <c r="C63">
-        <v>-0.03376808987546413</v>
+        <v>0.03070316201147842</v>
       </c>
       <c r="D63">
-        <v>-0.01225375998448178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01890699327390633</v>
+      </c>
+      <c r="E63">
+        <v>-0.06318960131572116</v>
+      </c>
+      <c r="F63">
+        <v>-0.04916145849410049</v>
+      </c>
+      <c r="G63">
+        <v>-0.06982516787235989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05299500405571886</v>
+        <v>-0.05807299933878668</v>
       </c>
       <c r="C64">
-        <v>-0.04938610441563334</v>
+        <v>0.05889216274392554</v>
       </c>
       <c r="D64">
-        <v>0.01407069039213143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01176527683563937</v>
+      </c>
+      <c r="E64">
+        <v>-0.04188488389162361</v>
+      </c>
+      <c r="F64">
+        <v>-0.05903273667118329</v>
+      </c>
+      <c r="G64">
+        <v>-0.048531967294275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08043160162894508</v>
+        <v>-0.06545724247426887</v>
       </c>
       <c r="C65">
-        <v>-0.02313089114200521</v>
+        <v>0.02492065483405146</v>
       </c>
       <c r="D65">
-        <v>0.06285267740742718</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09056505623041003</v>
+      </c>
+      <c r="E65">
+        <v>-0.04870667467656779</v>
+      </c>
+      <c r="F65">
+        <v>-0.008355432897930212</v>
+      </c>
+      <c r="G65">
+        <v>-0.02320580530398931</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06253642971533017</v>
+        <v>-0.0540691797889731</v>
       </c>
       <c r="C66">
-        <v>-0.08102882744408585</v>
+        <v>0.07809774173993711</v>
       </c>
       <c r="D66">
-        <v>0.04342681305448303</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07663386709265302</v>
+      </c>
+      <c r="E66">
+        <v>-0.063337265073361</v>
+      </c>
+      <c r="F66">
+        <v>-0.07184719548645979</v>
+      </c>
+      <c r="G66">
+        <v>-0.06686737590661114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05101249974111668</v>
+        <v>-0.04451354010011609</v>
       </c>
       <c r="C67">
-        <v>-0.0324967142884141</v>
+        <v>0.02877458649649531</v>
       </c>
       <c r="D67">
-        <v>-0.01861858744947999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.004540685705519494</v>
+      </c>
+      <c r="E67">
+        <v>-0.02948781230092595</v>
+      </c>
+      <c r="F67">
+        <v>-0.03238581494675398</v>
+      </c>
+      <c r="G67">
+        <v>-0.03237370779745728</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1225088510582296</v>
+        <v>-0.1473798579342326</v>
       </c>
       <c r="C68">
-        <v>0.2810498221171877</v>
+        <v>-0.2444737335001002</v>
       </c>
       <c r="D68">
-        <v>-0.009570237941016453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01431451025395483</v>
+      </c>
+      <c r="E68">
+        <v>-0.03899100204527635</v>
+      </c>
+      <c r="F68">
+        <v>-0.01287746268363522</v>
+      </c>
+      <c r="G68">
+        <v>-0.02633427207075944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09409651429658597</v>
+        <v>-0.08928880932030728</v>
       </c>
       <c r="C69">
-        <v>-0.0722841472826565</v>
+        <v>0.0906013401989101</v>
       </c>
       <c r="D69">
-        <v>-0.04537781593384424</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01203423292732039</v>
+      </c>
+      <c r="E69">
+        <v>-0.05790310067748778</v>
+      </c>
+      <c r="F69">
+        <v>-0.06201841672379776</v>
+      </c>
+      <c r="G69">
+        <v>-0.06723648317052208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1144996595137568</v>
+        <v>-0.1419603336344074</v>
       </c>
       <c r="C71">
-        <v>0.2605695173810474</v>
+        <v>-0.244364355463849</v>
       </c>
       <c r="D71">
-        <v>0.007496823494347728</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002510108189570256</v>
+      </c>
+      <c r="E71">
+        <v>-0.05542796296099125</v>
+      </c>
+      <c r="F71">
+        <v>-0.01753210717768373</v>
+      </c>
+      <c r="G71">
+        <v>-0.05995384637706142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09951520197065897</v>
+        <v>-0.1053010881158098</v>
       </c>
       <c r="C72">
-        <v>-0.04059004435792211</v>
+        <v>0.04825994981937123</v>
       </c>
       <c r="D72">
-        <v>0.003192005464992925</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03645625276723922</v>
+      </c>
+      <c r="E72">
+        <v>-0.01685953904827696</v>
+      </c>
+      <c r="F72">
+        <v>-0.03701562191925998</v>
+      </c>
+      <c r="G72">
+        <v>-0.09261003301756036</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3860264656560271</v>
+        <v>-0.3265653869096798</v>
       </c>
       <c r="C73">
-        <v>-0.03653852677450684</v>
+        <v>0.06284607667115702</v>
       </c>
       <c r="D73">
-        <v>0.4236844205036556</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4857609693836709</v>
+      </c>
+      <c r="E73">
+        <v>0.4806916716315839</v>
+      </c>
+      <c r="F73">
+        <v>0.2449931263184308</v>
+      </c>
+      <c r="G73">
+        <v>-0.05747390906689106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1080277541835035</v>
+        <v>-0.1127340708992124</v>
       </c>
       <c r="C74">
-        <v>-0.09563747026069412</v>
+        <v>0.09397776626373656</v>
       </c>
       <c r="D74">
-        <v>-0.03849327949578377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04414022156991742</v>
+      </c>
+      <c r="E74">
+        <v>-0.06137149098016143</v>
+      </c>
+      <c r="F74">
+        <v>0.003775116769352012</v>
+      </c>
+      <c r="G74">
+        <v>-0.04683525507433461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2567290645558363</v>
+        <v>-0.2601426616980004</v>
       </c>
       <c r="C75">
-        <v>-0.08932762949884683</v>
+        <v>0.1218652732253347</v>
       </c>
       <c r="D75">
-        <v>-0.1345402663742667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1489937879954306</v>
+      </c>
+      <c r="E75">
+        <v>-0.03717734749114467</v>
+      </c>
+      <c r="F75">
+        <v>0.05984838699719618</v>
+      </c>
+      <c r="G75">
+        <v>0.04961391744976952</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1158248128913142</v>
+        <v>-0.1291851878302636</v>
       </c>
       <c r="C76">
-        <v>-0.07911104467525364</v>
+        <v>0.09009169302765326</v>
       </c>
       <c r="D76">
-        <v>-0.06953821096338463</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07691792027820427</v>
+      </c>
+      <c r="E76">
+        <v>-0.07857908348551881</v>
+      </c>
+      <c r="F76">
+        <v>-0.0221637085793825</v>
+      </c>
+      <c r="G76">
+        <v>-0.03365342651700353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08580845809705036</v>
+        <v>-0.06980337367489566</v>
       </c>
       <c r="C77">
-        <v>-0.04171206729092056</v>
+        <v>0.05812336746471965</v>
       </c>
       <c r="D77">
-        <v>0.05656449655133346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06393344345469121</v>
+      </c>
+      <c r="E77">
+        <v>-0.08696049114657828</v>
+      </c>
+      <c r="F77">
+        <v>-0.1740202744732664</v>
+      </c>
+      <c r="G77">
+        <v>0.1234854512673323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05020477609423918</v>
+        <v>-0.04861439600137462</v>
       </c>
       <c r="C78">
-        <v>-0.03742717575664262</v>
+        <v>0.05134375854824955</v>
       </c>
       <c r="D78">
-        <v>0.03251764201850127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06664542645282498</v>
+      </c>
+      <c r="E78">
+        <v>-0.0566600193318631</v>
+      </c>
+      <c r="F78">
+        <v>-0.06588059852608039</v>
+      </c>
+      <c r="G78">
+        <v>-0.05898970735416349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.0002373828798259323</v>
+        <v>-0.0342630731511857</v>
       </c>
       <c r="C79">
-        <v>-0.0001503272058408595</v>
+        <v>0.04834458827530939</v>
       </c>
       <c r="D79">
-        <v>0.003260547328945946</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08092086892775935</v>
+      </c>
+      <c r="E79">
+        <v>-0.07236921041350153</v>
+      </c>
+      <c r="F79">
+        <v>0.02080146909649202</v>
+      </c>
+      <c r="G79">
+        <v>-0.03073942138464547</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04014660973797022</v>
+        <v>-0.0306786550588945</v>
       </c>
       <c r="C80">
-        <v>-0.05254052645713937</v>
+        <v>0.05206701622898032</v>
       </c>
       <c r="D80">
-        <v>0.03174744928531492</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04324640495010195</v>
+      </c>
+      <c r="E80">
+        <v>-0.009138582755249626</v>
+      </c>
+      <c r="F80">
+        <v>-0.0553759753788798</v>
+      </c>
+      <c r="G80">
+        <v>0.002703313235496226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1441617979686551</v>
+        <v>-0.1427032941089686</v>
       </c>
       <c r="C81">
-        <v>-0.07235609555791871</v>
+        <v>0.09173182212876685</v>
       </c>
       <c r="D81">
-        <v>-0.1033397299196344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1202031189205027</v>
+      </c>
+      <c r="E81">
+        <v>-0.07592551218423227</v>
+      </c>
+      <c r="F81">
+        <v>0.02373022592257364</v>
+      </c>
+      <c r="G81">
+        <v>0.01077656880132812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2006272360936157</v>
+        <v>-0.2313850083696378</v>
       </c>
       <c r="C82">
-        <v>-0.09083840189801239</v>
+        <v>0.1539235747603464</v>
       </c>
       <c r="D82">
-        <v>-0.2030424760608016</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2490938095183447</v>
+      </c>
+      <c r="E82">
+        <v>0.0414506909046927</v>
+      </c>
+      <c r="F82">
+        <v>-0.03580950262687552</v>
+      </c>
+      <c r="G82">
+        <v>-0.05115875659800024</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04388237622194435</v>
+        <v>-0.02976411534135365</v>
       </c>
       <c r="C83">
-        <v>-0.03006578070479085</v>
+        <v>0.04472530735411485</v>
       </c>
       <c r="D83">
-        <v>0.03653376690811706</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03259636374358784</v>
+      </c>
+      <c r="E83">
+        <v>-0.02065888440349849</v>
+      </c>
+      <c r="F83">
+        <v>-0.02828202589361862</v>
+      </c>
+      <c r="G83">
+        <v>0.001535969426114472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001746746535966869</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0004821929819551675</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0007744000272044527</v>
+      </c>
+      <c r="E84">
+        <v>-0.003309650020073591</v>
+      </c>
+      <c r="F84">
+        <v>0.001471507637666538</v>
+      </c>
+      <c r="G84">
+        <v>-0.0006430364205496577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2200129007760997</v>
+        <v>-0.202973988117475</v>
       </c>
       <c r="C85">
-        <v>-0.09395323983269149</v>
+        <v>0.1102355058553578</v>
       </c>
       <c r="D85">
-        <v>-0.15898138589104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1279946135455798</v>
+      </c>
+      <c r="E85">
+        <v>0.0004559026090479853</v>
+      </c>
+      <c r="F85">
+        <v>0.103234344299878</v>
+      </c>
+      <c r="G85">
+        <v>-0.01548196057679232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01130060808216687</v>
+        <v>-0.01433115646017243</v>
       </c>
       <c r="C86">
-        <v>-0.02786054459904247</v>
+        <v>0.01815754013916469</v>
       </c>
       <c r="D86">
-        <v>0.04907557086575826</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06726635172916713</v>
+      </c>
+      <c r="E86">
+        <v>-0.07332078968774652</v>
+      </c>
+      <c r="F86">
+        <v>-0.09147606408035709</v>
+      </c>
+      <c r="G86">
+        <v>-0.06292041826331819</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03002009419006609</v>
+        <v>-0.02973308047127627</v>
       </c>
       <c r="C87">
-        <v>-0.002110445457347726</v>
+        <v>0.01219846516508659</v>
       </c>
       <c r="D87">
-        <v>0.09120736544993295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09071263485108907</v>
+      </c>
+      <c r="E87">
+        <v>-0.120565065695953</v>
+      </c>
+      <c r="F87">
+        <v>-0.07978039575221035</v>
+      </c>
+      <c r="G87">
+        <v>0.008850035819976882</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1100638439288271</v>
+        <v>-0.09390194385613276</v>
       </c>
       <c r="C88">
-        <v>-0.08204776536499583</v>
+        <v>0.06616583304684684</v>
       </c>
       <c r="D88">
-        <v>-0.01364457478509493</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01545799480167631</v>
+      </c>
+      <c r="E88">
+        <v>-0.04891607180288698</v>
+      </c>
+      <c r="F88">
+        <v>-0.05375156155631675</v>
+      </c>
+      <c r="G88">
+        <v>-0.03143831985315274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1748739444562089</v>
+        <v>-0.2122743050328412</v>
       </c>
       <c r="C89">
-        <v>0.3814402122429255</v>
+        <v>-0.3844080904797429</v>
       </c>
       <c r="D89">
-        <v>-0.02753859543953771</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01475251946455303</v>
+      </c>
+      <c r="E89">
+        <v>-0.0726229179830135</v>
+      </c>
+      <c r="F89">
+        <v>-0.09004908075801031</v>
+      </c>
+      <c r="G89">
+        <v>0.01260527605945691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1685386978314377</v>
+        <v>-0.1938562863452039</v>
       </c>
       <c r="C90">
-        <v>0.3343625660126243</v>
+        <v>-0.3122618903081822</v>
       </c>
       <c r="D90">
-        <v>-0.03685186496308039</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0177731814174865</v>
+      </c>
+      <c r="E90">
+        <v>-0.05319471974088367</v>
+      </c>
+      <c r="F90">
+        <v>-0.03288285171063067</v>
+      </c>
+      <c r="G90">
+        <v>-0.01430391179168123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1893667933243424</v>
+        <v>-0.1869506696774984</v>
       </c>
       <c r="C91">
-        <v>-0.1249410488642355</v>
+        <v>0.1402836210347429</v>
       </c>
       <c r="D91">
-        <v>-0.1259851330535881</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1268615373968029</v>
+      </c>
+      <c r="E91">
+        <v>-0.05547961286087821</v>
+      </c>
+      <c r="F91">
+        <v>0.01369395702791898</v>
+      </c>
+      <c r="G91">
+        <v>0.004715504255582641</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1596114406449742</v>
+        <v>-0.1787419980041354</v>
       </c>
       <c r="C92">
-        <v>0.2941947601751279</v>
+        <v>-0.2980862600865004</v>
       </c>
       <c r="D92">
-        <v>-0.02119878325082993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0138446519869423</v>
+      </c>
+      <c r="E92">
+        <v>-0.06406603515035267</v>
+      </c>
+      <c r="F92">
+        <v>-0.05785467535903314</v>
+      </c>
+      <c r="G92">
+        <v>-0.02085426076862102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1870388903558242</v>
+        <v>-0.2132290979513209</v>
       </c>
       <c r="C93">
-        <v>0.3378215344437173</v>
+        <v>-0.3203455938756701</v>
       </c>
       <c r="D93">
-        <v>-0.04186752164672636</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02080873012856423</v>
+      </c>
+      <c r="E93">
+        <v>-0.04236302197556997</v>
+      </c>
+      <c r="F93">
+        <v>-0.00774021693479207</v>
+      </c>
+      <c r="G93">
+        <v>-0.0389040009713451</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3488734583562272</v>
+        <v>-0.3469727648712855</v>
       </c>
       <c r="C94">
-        <v>-0.1304235431361149</v>
+        <v>0.174419062636093</v>
       </c>
       <c r="D94">
-        <v>-0.3686391682876453</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3985874278856031</v>
+      </c>
+      <c r="E94">
+        <v>-0.01111268913139132</v>
+      </c>
+      <c r="F94">
+        <v>0.1645705705356038</v>
+      </c>
+      <c r="G94">
+        <v>0.3924709864998561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1250407087415673</v>
+        <v>-0.09117860071361544</v>
       </c>
       <c r="C95">
-        <v>-0.04432113493346278</v>
+        <v>0.05385482062774116</v>
       </c>
       <c r="D95">
-        <v>0.1997631761305208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.199312133187055</v>
+      </c>
+      <c r="E95">
+        <v>0.1645798618640109</v>
+      </c>
+      <c r="F95">
+        <v>-0.6519476383789149</v>
+      </c>
+      <c r="G95">
+        <v>0.6196419806633241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1900649507487585</v>
+        <v>-0.1854840868136372</v>
       </c>
       <c r="C98">
-        <v>-0.02888543409398876</v>
+        <v>0.04801051400854451</v>
       </c>
       <c r="D98">
-        <v>0.1579219302500308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.197874333506198</v>
+      </c>
+      <c r="E98">
+        <v>0.1502729846228987</v>
+      </c>
+      <c r="F98">
+        <v>0.08165067485965027</v>
+      </c>
+      <c r="G98">
+        <v>-0.08833801259253658</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007597400803741629</v>
+        <v>-0.007254289630137896</v>
       </c>
       <c r="C101">
-        <v>-0.03180927409260904</v>
+        <v>0.02805065613884004</v>
       </c>
       <c r="D101">
-        <v>-0.00761916071428327</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01989729785376984</v>
+      </c>
+      <c r="E101">
+        <v>-0.05336466847071861</v>
+      </c>
+      <c r="F101">
+        <v>-0.07916172898628719</v>
+      </c>
+      <c r="G101">
+        <v>-0.07928550402115349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1220472053578594</v>
+        <v>-0.1261301283611973</v>
       </c>
       <c r="C102">
-        <v>-0.06434954406922577</v>
+        <v>0.09673977891483325</v>
       </c>
       <c r="D102">
-        <v>-0.04741075480759176</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05926608961914977</v>
+      </c>
+      <c r="E102">
+        <v>0.0115790106395446</v>
+      </c>
+      <c r="F102">
+        <v>-0.01939099408661773</v>
+      </c>
+      <c r="G102">
+        <v>0.01079789854847461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
